--- a/data_CMS/CMS_109_TW4_2025.xlsx
+++ b/data_CMS/CMS_109_TW4_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA76"/>
+  <dimension ref="A1:AA84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10695,6 +10695,1086 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>020963</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>BNI</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>KOMISI PEMILIHAN UMUM</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>KOMISI PEMILIHAN UMUM</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>656574</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>976288077</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>RKK KOMISI PEMILIHAN UMUM OPS           LAIN-LAIN</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>9890766565741000</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>BPG 109 KPU OKUS</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>149738560</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>208814000</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Aktif CMS</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Aktif Transaksi</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Aktif</t>
+        </is>
+      </c>
+      <c r="Y77" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>TW4</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>MASTER DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>021532</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>BNI</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>KEMENTERIAN AGRARIA DAN TATA RUANG/BPN</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>SEKRETARIAT JENDERAL</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>670561</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>KANTOR PERTANAHAN KAB. OGAN KOMERING ULU SELATAN</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2020090032</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>SEKRETARIAT JENDERAL KEMENTERIAN AGRARIA DAN TATA RUANG/BPN</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>9890356705611000</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BPG 109 KANTAH OKUS </t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>35274258</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>1297554547</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>583394403</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Aktif CMS</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Aktif Transaksi</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Aktif</t>
+        </is>
+      </c>
+      <c r="Y78" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>TW4</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>MASTER DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>022555</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>BNI</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>KEMENTERIAN AGAMA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>DITJEN PENDIDIKAN ISLAM</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>553792</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>MADRASAH TSANAWIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>6072020860</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>RKK DITJEN PENDIDIKAN ISLAM KEMENAG OPS      PEMERINTAH</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>9891225537921000</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>BPG 109 MTSN 1 OKU SELATAN</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>42000</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>795939500</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Inaktif CMS</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Aktif Transaksi</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Aktif</t>
+        </is>
+      </c>
+      <c r="Y79" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>TW4</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>MASTER DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>022556</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>BNI</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>KEMENTERIAN AGAMA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>DITJEN PENDIDIKAN ISLAM</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>662127</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU SELATAN</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>6072020860</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>RKK DITJEN PENDIDIKAN ISLAM KEMENAG OPS      PEMERINTAH</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>9891226621271000</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BPG 109 MANMUARADUA </t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>1530000</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>1108508770</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Inaktif CMS</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Aktif Transaksi</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Aktif</t>
+        </is>
+      </c>
+      <c r="Y80" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>TW4</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>MASTER DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>024349</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>BNI</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>KEJAKSAAN REPUBLIK INDONESIA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>KEJAKSAAN REPUBLIK INDONESIA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1694916876</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>RKL JAMBIN PDT                  PEMERINTAH</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>9899490071302801</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>RPL 109 KEJARI OGAN KOMERING ULU</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>308955000</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>130000000</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Inaktif CMS</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Aktif Transaksi</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Aktif</t>
+        </is>
+      </c>
+      <c r="Y81" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>TW4</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>MASTER DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>024350</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>BNI</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>KEJAKSAAN REPUBLIK INDONESIA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>KEJAKSAAN REPUBLIK INDONESIA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>007208</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>1694916876</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>RKL JAMBIN PDT                  PEMERINTAH</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>9899490072082801</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>RPL 109 KEJARI OKU SELATAN</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>913911070</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>245913266</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Aktif CMS</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Aktif Transaksi</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Tidak Aktif</t>
+        </is>
+      </c>
+      <c r="Y82" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>TW4</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>MASTER DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>024351</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>BNI</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>KEJAKSAAN REPUBLIK INDONESIA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>KEJAKSAAN REPUBLIK INDONESIA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>007208</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>7884588006</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>RKK KEJAKSAAN RI OPS               PEMERINTAH</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>9890500072081000</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>BPG 109 KEJARI OKU SELATAN</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>1830604384</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Inaktif CMS</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Aktif Transaksi</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Aktif</t>
+        </is>
+      </c>
+      <c r="Y83" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>TW4</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>MASTER DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>025240</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>BSI</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>MAHKAMAH AGUNG</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>DIREKTORAT JENDERAL BADAN PERADILAN AGAMA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>403409</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PENGADILAN AGAMA MARTAPURA</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>7811122275</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>RKK DITJEN BADILAG OPS</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>8100124034091000</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>BPG 109 PA MARTAPURA 04</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>9824000</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>64749000</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Inaktif CMS</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Aktif Transaksi</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="Y84" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>TW4</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>MASTER DATA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
